--- a/AsmInt64Mul.xlsx
+++ b/AsmInt64Mul.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="8730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>2 * 4-stellige Zahlen</t>
   </si>
@@ -42,6 +43,18 @@
   </si>
   <si>
     <t>Jeder Kasten entspricht 64-Bit:</t>
+  </si>
+  <si>
+    <t>[esp+4]</t>
+  </si>
+  <si>
+    <t>[esp+8]</t>
+  </si>
+  <si>
+    <t>[esp+12]</t>
+  </si>
+  <si>
+    <t>[esp+16]</t>
   </si>
 </sst>
 </file>
@@ -73,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -142,11 +155,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -160,6 +184,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -442,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,4 +626,198 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>5584</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4927</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <f>B3*D3</f>
+        <v>27512368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <f>(B3-E9)/100</f>
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <f>MOD(B3, 100)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>(D9*100+E9)*(D13*100+E13)</f>
+        <v>27512368</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(F11=F3, "OK", "Achtung")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <f>(D3-E13)/100</f>
+        <v>49</v>
+      </c>
+      <c r="E13" s="2">
+        <f>MOD(D3, 100)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>(D13*D9-C16)/100</f>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <f>MOD(D13*D9,100)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <f>(D9*E13-D18)/100</f>
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <f>MOD(D9*E13,100)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f>(D13*E9-D19)/100</f>
+        <v>41</v>
+      </c>
+      <c r="D19" s="2">
+        <f>MOD(D13*E9,100)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="10">
+        <f>(E9*E13 - E20)/100</f>
+        <v>22</v>
+      </c>
+      <c r="E20" s="2">
+        <f>MOD(E9*E13, 100)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>(SUM(C16:C21)-C23)/100</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <f>(SUM(D16:D21)-D23)/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B16:B21)</f>
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <f>MOD(SUM(C16:C21), 100)</f>
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <f>MOD(SUM(D16:D21), 100)</f>
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <f>E20</f>
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <f>(B23*1000000) + (C23* 10000) + (D23*100) + E23</f>
+        <v>27512368</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(F23=F11, "OK", "Achtung")</f>
+        <v>OK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AsmInt64Mul.xlsx
+++ b/AsmInt64Mul.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="8730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="8730" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle5" sheetId="7" r:id="rId4"/>
+    <sheet name="Tabelle6" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="85">
   <si>
     <t>2 * 4-stellige Zahlen</t>
   </si>
@@ -45,23 +48,248 @@
     <t>Jeder Kasten entspricht 64-Bit:</t>
   </si>
   <si>
-    <t>[esp+4]</t>
-  </si>
-  <si>
-    <t>[esp+8]</t>
-  </si>
-  <si>
     <t>[esp+12]</t>
   </si>
   <si>
     <t>[esp+16]</t>
+  </si>
+  <si>
+    <t>[esp+20]</t>
+  </si>
+  <si>
+    <t>[ebp+12]</t>
+  </si>
+  <si>
+    <t>[ebp+20]</t>
+  </si>
+  <si>
+    <t>[ebp+16]</t>
+  </si>
+  <si>
+    <t>[ebp+ 8]</t>
+  </si>
+  <si>
+    <t>[esp+24]</t>
+  </si>
+  <si>
+    <t>[esp+28]</t>
+  </si>
+  <si>
+    <t>[esp+ 0]</t>
+  </si>
+  <si>
+    <t>[esp+ 4]</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>[esp+ 8]</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>UInt64_Mul</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>eax</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>; Multiply Lo dwords,</t>
+  </si>
+  <si>
+    <t>; Save Lo dword of product,</t>
+  </si>
+  <si>
+    <t>ecx</t>
+  </si>
+  <si>
+    <t>; Save Hi dword of partial product result,</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>; Add to the partial product,</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>edx</t>
+  </si>
+  <si>
+    <t>; Don't forget the carry!</t>
+  </si>
+  <si>
+    <t>ebx</t>
+  </si>
+  <si>
+    <t>; Save partial product for now,</t>
+  </si>
+  <si>
+    <t>; Get Hi dword of Multiplier,</t>
+  </si>
+  <si>
+    <t>; Multiply by Lo dword of Multiplicand,</t>
+  </si>
+  <si>
+    <t>prd[4]</t>
+  </si>
+  <si>
+    <t>; Save the partial product,</t>
+  </si>
+  <si>
+    <t>; Add in the carry!</t>
+  </si>
+  <si>
+    <t>pushfd</t>
+  </si>
+  <si>
+    <t>; Save carry out here,</t>
+  </si>
+  <si>
+    <t>; Multiply the two Hi dwords together,</t>
+  </si>
+  <si>
+    <t>popfd</t>
+  </si>
+  <si>
+    <t>; Retrieve carry from above</t>
+  </si>
+  <si>
+    <t>; Add in partial product from above,</t>
+  </si>
+  <si>
+    <t>prd[8]</t>
+  </si>
+  <si>
+    <t>prd[12]</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>endp</t>
+  </si>
+  <si>
+    <t>; Multiply the Hi dword of Multiplier times Multiplicand,</t>
+  </si>
+  <si>
+    <t>mc[4]</t>
+  </si>
+  <si>
+    <t>mp[4]</t>
+  </si>
+  <si>
+    <t>prd[0]</t>
+  </si>
+  <si>
+    <t>mp[0]</t>
+  </si>
+  <si>
+    <t>mc[0]</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>[esp+4] : [esp+8]</t>
+  </si>
+  <si>
+    <t>[esp+12] : [esp+16]</t>
+  </si>
+  <si>
+    <t>mp[0] : mp[4]</t>
+  </si>
+  <si>
+    <t>mc[0] : mc[4]</t>
+  </si>
+  <si>
+    <t>; Multiply the Lo dword of Multiplier times Lo dword of Multiplicand</t>
+  </si>
+  <si>
+    <t>; Multiply Lo dword of Multiplier times Hi dword of Multiplicand</t>
+  </si>
+  <si>
+    <t>;mov</t>
+  </si>
+  <si>
+    <t>edi[12]</t>
+  </si>
+  <si>
+    <t>edi[ 0]</t>
+  </si>
+  <si>
+    <t>edi[ 4]</t>
+  </si>
+  <si>
+    <t>edi[ 8]</t>
+  </si>
+  <si>
+    <t>prd[ 4]</t>
+  </si>
+  <si>
+    <t>prd[ 0]</t>
+  </si>
+  <si>
+    <t>prd[ 8]</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>lo mid</t>
+  </si>
+  <si>
+    <t>hi mid</t>
+  </si>
+  <si>
+    <t>[edi+ 8]</t>
+  </si>
+  <si>
+    <t>[edi+12]</t>
+  </si>
+  <si>
+    <t>[edi+ 4]</t>
+  </si>
+  <si>
+    <t>dword ptr [esp+12]</t>
+  </si>
+  <si>
+    <t>dword ptr [esp+16]</t>
+  </si>
+  <si>
+    <t>; NOPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +305,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,22 +389,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -185,7 +408,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,7 +712,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +729,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
-        <v>5384</v>
+        <v>5584</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -499,7 +742,7 @@
       </c>
       <c r="F3" s="8">
         <f>B3*D3</f>
-        <v>26526968</v>
+        <v>27512368</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,7 +756,7 @@
       </c>
       <c r="D7" s="1">
         <f>(B3-E7)/100</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <f>MOD(B3, 100)</f>
@@ -523,7 +766,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8">
         <f>(D7*100+E7)*(D9*100+E9)</f>
-        <v>26526968</v>
+        <v>27512368</v>
       </c>
       <c r="G8" t="str">
         <f>IF(F8=F3, "OK", "Achtung")</f>
@@ -557,7 +800,7 @@
       </c>
       <c r="D12" s="2">
         <f>MOD(D7*E9,100)</f>
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,11 +816,11 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>(D9*D7-C14)/100</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <f>MOD(D9*D7,100)</f>
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,7 +830,7 @@
       </c>
       <c r="C15" s="2">
         <f>(SUM(D11:D13)-D17)/100</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,15 +842,15 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>SUM(B14:B15)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <f>MOD(SUM(C12:C15), 100)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <f>MOD(SUM(D11:D13), 100)</f>
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <f>E11</f>
@@ -615,7 +858,7 @@
       </c>
       <c r="F17">
         <f>(B17*1000000) + (C17* 10000) + (D17*100) + E17</f>
-        <v>26526968</v>
+        <v>27512368</v>
       </c>
       <c r="G17" t="str">
         <f>IF(F17=F8, "OK", "Achtung")</f>
@@ -630,10 +873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,17 +920,1568 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>(D9*100+E9)*(D13*100+E13)</f>
+        <v>86563140</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(F11=F3, "OK", "Achtung")</f>
+        <v>Achtung</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>(D13*D9-C16)/100</f>
+        <v>85</v>
+      </c>
+      <c r="C16" s="2">
+        <f>MOD(D13*D9,100)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f>(D13*E9-D19)/100</f>
+        <v>66</v>
+      </c>
+      <c r="D19" s="2">
+        <f>MOD(D13*E9,100)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <f>(D9*E13-D22)/100</f>
+        <v>63</v>
+      </c>
+      <c r="D22" s="2">
+        <f>MOD(D9*E13,100)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <f>(E9*E13 - E25)/100</f>
+        <v>49</v>
+      </c>
+      <c r="E25" s="2">
+        <f>MOD(E9*E13, 100)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f>(SUM(C16:C28)-C31)/100</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f>(SUM(D25,D22,D19)-D31)/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B16:B28)</f>
+        <v>86</v>
+      </c>
+      <c r="C31">
+        <f>MOD(SUM(C16:C28), 100)</f>
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <f>MOD(SUM(D25,D22,D19), 100)</f>
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <f>E25</f>
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <f>(B31*1000000) + (C31* 10000) + (D31*100) + E31</f>
+        <v>86563140</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(F31=F11, "OK", "Achtung")</f>
+        <v>OK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="H6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>184</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>185</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <f>B3*D3</f>
+        <v>34040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="1">
         <f>(B3-E9)/100</f>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <f>MOD(B3, 100)</f>
@@ -695,124 +2489,167 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="F10">
+        <f>(D9*100+E9)*(D12*100+E12)</f>
+        <v>34040</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(F10=F3, "OK", "Achtung")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <f>(D9*100+E9)*(D13*100+E13)</f>
-        <v>27512368</v>
-      </c>
-      <c r="G11" t="str">
-        <f>IF(F11=F3, "OK", "Achtung")</f>
-        <v>OK</v>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(D3-E12)/100</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f>MOD(D3, 100)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <f>(D3-E13)/100</f>
-        <v>49</v>
-      </c>
-      <c r="E13" s="2">
-        <f>MOD(D3, 100)</f>
-        <v>27</v>
-      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="1">
+        <f>(E9*E12 - E15)/100</f>
+        <v>71</v>
+      </c>
+      <c r="E15" s="2">
+        <f>MOD(E9*E12, 100)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f>(D13*D9-C16)/100</f>
-        <v>26</v>
-      </c>
-      <c r="C16" s="2">
-        <f>MOD(D13*D9,100)</f>
-        <v>95</v>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <f>(D9*E13-D18)/100</f>
-        <v>14</v>
+        <f>(D12*E9-D18)/100</f>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f>MOD(D9*E13,100)</f>
+        <f>MOD(D12*E9,100)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <f>(D9*E12-D21)/100</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>MOD(D9*E12,100)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <f>(D13*E9-D19)/100</f>
-        <v>41</v>
-      </c>
-      <c r="D19" s="2">
-        <f>MOD(D13*E9,100)</f>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="10">
-        <f>(E9*E13 - E20)/100</f>
-        <v>22</v>
-      </c>
-      <c r="E20" s="2">
-        <f>MOD(E9*E13, 100)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f>(SUM(C16:C21)-C23)/100</f>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>(D12*D9-C24)/100</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <f>MOD(D12*D9,100)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="2">
-        <f>(SUM(D16:D21)-D23)/100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>SUM(B16:B21)</f>
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <f>MOD(SUM(C16:C21), 100)</f>
-        <v>51</v>
-      </c>
-      <c r="D23">
-        <f>MOD(SUM(D16:D21), 100)</f>
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <f>E20</f>
-        <v>68</v>
-      </c>
-      <c r="F23">
-        <f>(B23*1000000) + (C23* 10000) + (D23*100) + E23</f>
-        <v>27512368</v>
-      </c>
-      <c r="G23" t="str">
-        <f>IF(F23=F11, "OK", "Achtung")</f>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f>(SUM(C24:C27)-C29)/100</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <f>(SUM(D15,D21,D18)-D29)/100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>SUM(B24:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>MOD(SUM(C24:C27), 100)</f>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f>MOD(SUM(D15,D21,D18), 100)</f>
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <f>E15</f>
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <f>(B29*1000000) + (C29* 10000) + (D29*100) + E29</f>
+        <v>34040</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(F29=F10, "OK", "Achtung")</f>
         <v>OK</v>
       </c>
     </row>

--- a/AsmInt64Mul.xlsx
+++ b/AsmInt64Mul.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
   <si>
     <t>2 * 4-stellige Zahlen</t>
   </si>
@@ -276,13 +276,22 @@
     <t>[edi+ 4]</t>
   </si>
   <si>
-    <t>dword ptr [esp+12]</t>
-  </si>
-  <si>
-    <t>dword ptr [esp+16]</t>
-  </si>
-  <si>
     <t>; NOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dword ptr </t>
+  </si>
+  <si>
+    <t>mp[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>mc[</t>
+  </si>
+  <si>
+    <t>[esp+</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -428,6 +437,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,11 +1151,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="7" t="s">
         <v>63</v>
       </c>
@@ -1147,11 +1164,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="7" t="s">
         <v>61</v>
       </c>
@@ -1756,223 +1773,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="F4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="15">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <f>G4+4</f>
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="15">
+        <f>K4+4</f>
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="12" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="T5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="12" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="T6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="12" t="s">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="H6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="15">
+        <f>K5+4</f>
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <f>G8+4</f>
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="15">
+        <f>K8+4</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -1981,109 +2045,112 @@
         <v>59</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -2092,252 +2159,279 @@
         <v>59</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="P25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -2403,17 +2497,7 @@
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
